--- a/MapConfig/map48x48.xlsx
+++ b/MapConfig/map48x48.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\projects\RESTART\MapConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D262F24E-B70D-48D8-BEAD-B973EB052786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8F5654-8E7D-45C7-8D27-C84FC64531D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,8 +339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10:AN14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3336,37 +3336,37 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -3816,16 +3816,16 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
         <v>1</v>
@@ -3962,16 +3962,16 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
         <v>1</v>
@@ -4108,19 +4108,19 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32">
         <v>0</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -5416,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35">
         <v>0</v>
@@ -5639,16 +5639,16 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         <v>1</v>
       </c>
       <c r="AK37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -5785,16 +5785,16 @@
         <v>1</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -5857,16 +5857,16 @@
         <v>1</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38">
         <v>0</v>
